--- a/Z_tables/Results_English.xlsx
+++ b/Z_tables/Results_English.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Personal/Academia/My Papers/02 - Papers/2020/JITT/latex-itt/Z_tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icekler/Local_Github/latex-itt/Z_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE373389-91F0-1B4B-8406-3957F1C69159}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF1EE14-F95E-7444-8E84-73BE1EECA1B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19220" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{D6B933B3-AB30-A548-9C75-DDB8C50C1396}"/>
+    <workbookView xWindow="-19220" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{D6B933B3-AB30-A548-9C75-DDB8C50C1396}"/>
   </bookViews>
   <sheets>
     <sheet name="Positive" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="672">
   <si>
     <t>caption</t>
   </si>
@@ -2024,6 +2024,37 @@
   </si>
   <si>
     <t>dirty chair : 2</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>3: 5000 to
+ 10,000 yen</t>
+  </si>
+  <si>
+    <t>4: 10,000 to
+ 15,000 yen</t>
+  </si>
+  <si>
+    <t>5: 15,000 to
+ 20,000 yen</t>
+  </si>
+  <si>
+    <t>6: 20,000 to
+ 30,000 yen</t>
+  </si>
+  <si>
+    <t>7: 30,000 to
+ 50,000 yen</t>
+  </si>
+  <si>
+    <t>8: 50,000 to
+ 100,000 yen</t>
+  </si>
+  <si>
+    <t>9: 100,000 to
+ 200,000 yen</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2093,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2074,19 +2105,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -2139,7 +2157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2148,21 +2166,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2477,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865D527D-DC7B-7842-B7D3-A3B804F341F8}">
-  <dimension ref="A1:K155"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A78" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4336,7 +4360,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B98" t="s">
@@ -4352,33 +4376,36 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="3" t="s">
         <v>304</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>664</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -4399,12 +4426,15 @@
       <c r="G101" s="2" t="s">
         <v>410</v>
       </c>
+      <c r="H101" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="K101" s="2" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
+      <c r="A102" s="11"/>
       <c r="B102" s="2" t="s">
         <v>34</v>
       </c>
@@ -4423,12 +4453,15 @@
       <c r="G102" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="H102" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="K102" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
+      <c r="A103" s="11"/>
       <c r="B103" s="2" t="s">
         <v>42</v>
       </c>
@@ -4447,12 +4480,15 @@
       <c r="G103" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="H103" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K103" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
+      <c r="A104" s="11"/>
       <c r="B104" s="2" t="s">
         <v>50</v>
       </c>
@@ -4471,12 +4507,15 @@
       <c r="G104" s="2" t="s">
         <v>274</v>
       </c>
+      <c r="H104" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="K104" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="8"/>
+      <c r="A105" s="11"/>
       <c r="B105" s="2" t="s">
         <v>305</v>
       </c>
@@ -4495,13 +4534,16 @@
       <c r="G105" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="H105" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="K105" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
-        <v>26</v>
+      <c r="A106" s="12" t="s">
+        <v>665</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>319</v>
@@ -4521,12 +4563,15 @@
       <c r="G106" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="H106" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="K106" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
+      <c r="A107" s="11"/>
       <c r="B107" s="2" t="s">
         <v>35</v>
       </c>
@@ -4545,12 +4590,15 @@
       <c r="G107" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="H107" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="K107" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
+      <c r="A108" s="11"/>
       <c r="B108" s="2" t="s">
         <v>43</v>
       </c>
@@ -4567,12 +4615,15 @@
       <c r="G108" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="H108" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="K108" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
+      <c r="A109" s="11"/>
       <c r="B109" s="2" t="s">
         <v>51</v>
       </c>
@@ -4589,12 +4640,15 @@
       <c r="G109" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="H109" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="K109" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
+      <c r="A110" s="11"/>
       <c r="B110" s="2" t="s">
         <v>306</v>
       </c>
@@ -4609,11 +4663,14 @@
         <v>252</v>
       </c>
       <c r="G110" s="2"/>
+      <c r="H110" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
-        <v>27</v>
+      <c r="A111" s="12" t="s">
+        <v>666</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>320</v>
@@ -4633,12 +4690,15 @@
       <c r="G111" s="2" t="s">
         <v>411</v>
       </c>
+      <c r="H111" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="K111" s="2" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
+      <c r="A112" s="11"/>
       <c r="B112" s="2" t="s">
         <v>36</v>
       </c>
@@ -4657,12 +4717,15 @@
       <c r="G112" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="H112" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="K112" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
+      <c r="A113" s="11"/>
       <c r="B113" s="2" t="s">
         <v>44</v>
       </c>
@@ -4681,12 +4744,15 @@
       <c r="G113" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="H113" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="K113" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
+      <c r="A114" s="11"/>
       <c r="B114" s="2" t="s">
         <v>53</v>
       </c>
@@ -4705,12 +4771,15 @@
       <c r="G114" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="H114" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="K114" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
+      <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>307</v>
       </c>
@@ -4729,13 +4798,16 @@
       <c r="G115" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="H115" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="K115" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
-        <v>28</v>
+      <c r="A116" s="12" t="s">
+        <v>667</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>321</v>
@@ -4755,12 +4827,15 @@
       <c r="G116" s="2" t="s">
         <v>412</v>
       </c>
+      <c r="H116" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="K116" s="2" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
+      <c r="A117" s="11"/>
       <c r="B117" s="2" t="s">
         <v>37</v>
       </c>
@@ -4779,12 +4854,15 @@
       <c r="G117" s="2" t="s">
         <v>261</v>
       </c>
+      <c r="H117" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="K117" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
+      <c r="A118" s="11"/>
       <c r="B118" s="2" t="s">
         <v>45</v>
       </c>
@@ -4803,12 +4881,15 @@
       <c r="G118" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="H118" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="K118" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
+      <c r="A119" s="11"/>
       <c r="B119" s="2" t="s">
         <v>54</v>
       </c>
@@ -4827,12 +4908,15 @@
       <c r="G119" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="H119" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="K119" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="8"/>
+      <c r="A120" s="11"/>
       <c r="B120" s="2" t="s">
         <v>308</v>
       </c>
@@ -4851,13 +4935,16 @@
       <c r="G120" s="2" t="s">
         <v>283</v>
       </c>
+      <c r="H120" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="K120" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
-        <v>29</v>
+      <c r="A121" s="12" t="s">
+        <v>668</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>322</v>
@@ -4877,12 +4964,15 @@
       <c r="G121" s="2" t="s">
         <v>413</v>
       </c>
+      <c r="H121" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="K121" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="7"/>
+      <c r="A122" s="11"/>
       <c r="B122" s="2" t="s">
         <v>38</v>
       </c>
@@ -4901,12 +4991,15 @@
       <c r="G122" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="H122" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="K122" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="7"/>
+      <c r="A123" s="11"/>
       <c r="B123" s="2" t="s">
         <v>46</v>
       </c>
@@ -4925,12 +5018,15 @@
       <c r="G123" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="H123" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="K123" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="7"/>
+      <c r="A124" s="11"/>
       <c r="B124" s="2" t="s">
         <v>55</v>
       </c>
@@ -4949,12 +5045,15 @@
       <c r="G124" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="H124" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="K124" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="8"/>
+      <c r="A125" s="11"/>
       <c r="B125" s="2" t="s">
         <v>309</v>
       </c>
@@ -4973,13 +5072,16 @@
       <c r="G125" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="H125" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="K125" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
-        <v>30</v>
+      <c r="A126" s="12" t="s">
+        <v>669</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>323</v>
@@ -4999,12 +5101,15 @@
       <c r="G126" s="2" t="s">
         <v>414</v>
       </c>
+      <c r="H126" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="K126" s="2" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="7"/>
+      <c r="A127" s="11"/>
       <c r="B127" s="2" t="s">
         <v>39</v>
       </c>
@@ -5023,12 +5128,15 @@
       <c r="G127" s="2" t="s">
         <v>263</v>
       </c>
+      <c r="H127" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="K127" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="7"/>
+      <c r="A128" s="11"/>
       <c r="B128" s="2" t="s">
         <v>47</v>
       </c>
@@ -5047,12 +5155,15 @@
       <c r="G128" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="H128" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K128" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="7"/>
+      <c r="A129" s="11"/>
       <c r="B129" s="2" t="s">
         <v>52</v>
       </c>
@@ -5071,12 +5182,15 @@
       <c r="G129" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="H129" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="K129" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="8"/>
+      <c r="A130" s="11"/>
       <c r="B130" s="2" t="s">
         <v>56</v>
       </c>
@@ -5095,13 +5209,16 @@
       <c r="G130" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="H130" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="K130" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="s">
-        <v>31</v>
+      <c r="A131" s="12" t="s">
+        <v>670</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>326</v>
@@ -5121,12 +5238,15 @@
       <c r="G131" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="H131" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="K131" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="7"/>
+      <c r="A132" s="11"/>
       <c r="B132" s="2" t="s">
         <v>40</v>
       </c>
@@ -5145,12 +5265,15 @@
       <c r="G132" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="H132" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="K132" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="7"/>
+      <c r="A133" s="11"/>
       <c r="B133" s="2" t="s">
         <v>48</v>
       </c>
@@ -5169,12 +5292,15 @@
       <c r="G133" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="H133" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="K133" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="7"/>
+      <c r="A134" s="11"/>
       <c r="B134" s="2" t="s">
         <v>57</v>
       </c>
@@ -5193,12 +5319,15 @@
       <c r="G134" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="H134" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="K134" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
+      <c r="A135" s="11"/>
       <c r="B135" s="2" t="s">
         <v>47</v>
       </c>
@@ -5217,13 +5346,16 @@
       <c r="G135" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="H135" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="K135" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
-        <v>32</v>
+      <c r="A136" s="12" t="s">
+        <v>671</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>333</v>
@@ -5243,12 +5375,15 @@
       <c r="G136" s="2" t="s">
         <v>361</v>
       </c>
+      <c r="H136" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K136" s="2" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="7"/>
+      <c r="A137" s="11"/>
       <c r="B137" s="2" t="s">
         <v>41</v>
       </c>
@@ -5267,12 +5402,15 @@
       <c r="G137" s="2" t="s">
         <v>265</v>
       </c>
+      <c r="H137" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K137" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="7"/>
+      <c r="A138" s="11"/>
       <c r="B138" s="2" t="s">
         <v>49</v>
       </c>
@@ -5291,12 +5429,15 @@
       <c r="G138" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="H138" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="K138" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="7"/>
+      <c r="A139" s="11"/>
       <c r="B139" s="2" t="s">
         <v>58</v>
       </c>
@@ -5315,12 +5456,15 @@
       <c r="G139" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="H139" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K139" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
+      <c r="A140" s="11"/>
       <c r="B140" s="2" t="s">
         <v>310</v>
       </c>
@@ -5338,6 +5482,9 @@
       </c>
       <c r="G140" s="2" t="s">
         <v>285</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>192</v>
@@ -5629,16 +5776,42 @@
         <v>373</v>
       </c>
     </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" t="s">
+        <v>30</v>
+      </c>
+      <c r="G157" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A140"/>
     <mergeCell ref="A101:A105"/>
     <mergeCell ref="A106:A110"/>
     <mergeCell ref="A111:A115"/>
     <mergeCell ref="A116:A120"/>
     <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5648,8 +5821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC49D35A-98A1-9547-B7A5-91366906504D}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5968,7 +6141,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
@@ -6576,18 +6749,18 @@
       <c r="H49" s="2"/>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="6" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="6" t="s">
         <v>615</v>
       </c>
     </row>
@@ -6729,18 +6902,18 @@
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="6" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="6" t="s">
         <v>616</v>
       </c>
     </row>
@@ -6829,18 +7002,18 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="6" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="6" t="s">
         <v>647</v>
       </c>
     </row>
@@ -6977,7 +7150,7 @@
       <c r="H77" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B81" t="s">
@@ -7013,7 +7186,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -7033,7 +7206,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="2" t="s">
         <v>501</v>
       </c>
@@ -7051,7 +7224,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="2" t="s">
         <v>508</v>
       </c>
@@ -7069,7 +7242,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="2" t="s">
         <v>515</v>
       </c>
@@ -7087,7 +7260,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="2" t="s">
         <v>522</v>
       </c>
@@ -7105,7 +7278,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -7123,7 +7296,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
@@ -7133,7 +7306,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -7141,7 +7314,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -7149,7 +7322,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
+      <c r="A93" s="9"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -7157,7 +7330,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -7177,7 +7350,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="2" t="s">
         <v>502</v>
       </c>
@@ -7195,7 +7368,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="2" t="s">
         <v>509</v>
       </c>
@@ -7211,7 +7384,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="2" t="s">
         <v>516</v>
       </c>
@@ -7225,7 +7398,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="2" t="s">
         <v>523</v>
       </c>
@@ -7237,7 +7410,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -7257,7 +7430,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="2" t="s">
         <v>503</v>
       </c>
@@ -7275,7 +7448,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="2" t="s">
         <v>510</v>
       </c>
@@ -7289,7 +7462,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
+      <c r="A102" s="8"/>
       <c r="B102" s="2" t="s">
         <v>517</v>
       </c>
@@ -7301,7 +7474,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="2" t="s">
         <v>524</v>
       </c>
@@ -7313,7 +7486,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -7333,7 +7506,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="2" t="s">
         <v>504</v>
       </c>
@@ -7351,7 +7524,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="2" t="s">
         <v>511</v>
       </c>
@@ -7369,7 +7542,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="2" t="s">
         <v>518</v>
       </c>
@@ -7387,7 +7560,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="8"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="2" t="s">
         <v>520</v>
       </c>
@@ -7403,7 +7576,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -7423,7 +7596,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="2" t="s">
         <v>505</v>
       </c>
@@ -7441,7 +7614,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="2" t="s">
         <v>512</v>
       </c>
@@ -7459,7 +7632,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
+      <c r="A112" s="8"/>
       <c r="B112" s="2" t="s">
         <v>519</v>
       </c>
@@ -7477,7 +7650,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="2" t="s">
         <v>525</v>
       </c>
@@ -7495,7 +7668,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -7515,7 +7688,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="2" t="s">
         <v>506</v>
       </c>
@@ -7533,7 +7706,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="2" t="s">
         <v>513</v>
       </c>
@@ -7549,7 +7722,7 @@
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="2" t="s">
         <v>520</v>
       </c>
@@ -7565,7 +7738,7 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="2" t="s">
         <v>526</v>
       </c>
@@ -7579,7 +7752,7 @@
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -7599,7 +7772,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
+      <c r="A120" s="8"/>
       <c r="B120" s="2" t="s">
         <v>507</v>
       </c>
@@ -7615,7 +7788,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="7"/>
+      <c r="A121" s="8"/>
       <c r="B121" s="2" t="s">
         <v>514</v>
       </c>
@@ -7625,7 +7798,7 @@
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="7"/>
+      <c r="A122" s="8"/>
       <c r="B122" s="2" t="s">
         <v>521</v>
       </c>
@@ -7635,7 +7808,7 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="8"/>
+      <c r="A123" s="9"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
